--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3626454.124037065</v>
+        <v>3622151.9621406</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7667114.008778171</v>
+        <v>7667114.00877817</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>50.20964914699371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>50.20964914699368</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.633145769158318</v>
       </c>
       <c r="T3" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="V3" t="n">
-        <v>156.474247022269</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>40.66084997792578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120.0319938887135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537538</v>
+        <v>349.2299344537558</v>
       </c>
       <c r="D5" t="n">
-        <v>154.7016837282525</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537538</v>
+        <v>349.2299344537558</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969025</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.2299344537558</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537538</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>300.7256805251565</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>111.7771026772139</v>
       </c>
       <c r="E6" t="n">
-        <v>148.1076431992035</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.9500795027772</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419607</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612241</v>
+        <v>8.321493021612</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>65.30867190175378</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>100.921842715617</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573321</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704886</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>288.8263123722663</v>
       </c>
       <c r="G8" t="n">
-        <v>250.3229910985503</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.794302634934395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>59.45282559760493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>109.8058856274587</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176204</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>30.65104903283329</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>29.249233057517</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2326,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>93.07916359105458</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576175</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T31" t="n">
-        <v>136.9649966249142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.976073321717</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.268486125805721</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3556,10 +3556,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
-        <v>74.75770077867834</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.247504338865</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.4030692042953</v>
+        <v>338.1060369005844</v>
       </c>
       <c r="C2" t="n">
-        <v>199.4030692042953</v>
+        <v>338.1060369005844</v>
       </c>
       <c r="D2" t="n">
-        <v>199.4030692042953</v>
+        <v>338.1060369005844</v>
       </c>
       <c r="E2" t="n">
-        <v>199.4030692042953</v>
+        <v>338.1060369005844</v>
       </c>
       <c r="F2" t="n">
-        <v>192.4575684550919</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4330,13 +4330,13 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
@@ -4375,7 +4375,7 @@
         <v>388.8228542207801</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.4030692042953</v>
+        <v>388.8228542207801</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>213.2079836603211</v>
+        <v>166.133934959413</v>
       </c>
       <c r="C3" t="n">
-        <v>213.2079836603211</v>
+        <v>166.133934959413</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>166.133934959413</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>166.133934959413</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
         <v>64.27357399906981</v>
@@ -4418,13 +4418,13 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4433,28 +4433,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>713.1888420124504</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>523.7690569959657</v>
       </c>
       <c r="U3" t="n">
-        <v>371.26277863231</v>
+        <v>523.7690569959657</v>
       </c>
       <c r="V3" t="n">
-        <v>213.2079836603211</v>
+        <v>523.7690569959657</v>
       </c>
       <c r="W3" t="n">
-        <v>213.2079836603211</v>
+        <v>523.7690569959657</v>
       </c>
       <c r="X3" t="n">
-        <v>213.2079836603211</v>
+        <v>334.349271979481</v>
       </c>
       <c r="Y3" t="n">
-        <v>213.2079836603211</v>
+        <v>334.349271979481</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.6572481379027</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C4" t="n">
-        <v>206.7210652099958</v>
+        <v>581.1661657373726</v>
       </c>
       <c r="D4" t="n">
-        <v>165.6494995757273</v>
+        <v>431.0495263250368</v>
       </c>
       <c r="E4" t="n">
-        <v>165.6494995757273</v>
+        <v>283.1364327426437</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6494995757273</v>
+        <v>136.2464852447333</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
@@ -4497,43 +4497,43 @@
         <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>295.5529562639638</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638718</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681424</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681424</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681424</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681424</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X4" t="n">
-        <v>557.3057129681424</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y4" t="n">
-        <v>557.3057129681424</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.6632416022311</v>
+        <v>740.3989146040007</v>
       </c>
       <c r="C5" t="n">
-        <v>543.9057320529848</v>
+        <v>387.6414050547523</v>
       </c>
       <c r="D5" t="n">
-        <v>387.64140505475</v>
+        <v>387.6414050547523</v>
       </c>
       <c r="E5" t="n">
-        <v>387.64140505475</v>
+        <v>387.6414050547523</v>
       </c>
       <c r="F5" t="n">
-        <v>380.6959043055465</v>
+        <v>380.6959043055488</v>
       </c>
       <c r="G5" t="n">
-        <v>27.9383947563003</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="H5" t="n">
-        <v>27.9383947563003</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563003</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874546</v>
+        <v>80.99020340874631</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620519</v>
+        <v>211.2396305620539</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458641</v>
+        <v>409.7273242458673</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973795</v>
+        <v>662.252565397384</v>
       </c>
       <c r="N5" t="n">
-        <v>923.477737336571</v>
+        <v>923.4777373365765</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477528</v>
+        <v>1156.809998477535</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169729</v>
+        <v>1321.452684169736</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815015</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815015</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="S5" t="n">
-        <v>1249.420751151477</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="T5" t="n">
-        <v>1249.420751151477</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="U5" t="n">
-        <v>1249.420751151477</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="V5" t="n">
-        <v>1249.420751151477</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="W5" t="n">
-        <v>1249.420751151477</v>
+        <v>1044.162228265775</v>
       </c>
       <c r="X5" t="n">
-        <v>896.6632416022311</v>
+        <v>1044.162228265775</v>
       </c>
       <c r="Y5" t="n">
-        <v>896.6632416022311</v>
+        <v>740.3989146040007</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>599.1115913421472</v>
+        <v>315.2975883578456</v>
       </c>
       <c r="C6" t="n">
-        <v>599.1115913421472</v>
+        <v>140.8445590767186</v>
       </c>
       <c r="D6" t="n">
-        <v>599.1115913421472</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="E6" t="n">
-        <v>449.5079113429517</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.9733533698367</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="G6" t="n">
-        <v>165.7366073290006</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377109</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563003</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="J6" t="n">
-        <v>40.7178415914303</v>
+        <v>40.71784159143083</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379361</v>
+        <v>140.7147764379372</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824476</v>
+        <v>321.4955368824496</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158585</v>
+        <v>551.8150256158615</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947621</v>
+        <v>802.6390307947661</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887845</v>
+        <v>1009.87419788785</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411828</v>
+        <v>1156.865623411834</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815015</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308336</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880419</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="T6" t="n">
-        <v>1242.848713880419</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="U6" t="n">
-        <v>1014.723390312634</v>
+        <v>1388.514189308345</v>
       </c>
       <c r="V6" t="n">
-        <v>1014.723390312634</v>
+        <v>1153.362081076602</v>
       </c>
       <c r="W6" t="n">
-        <v>1014.723390312634</v>
+        <v>899.1247243484004</v>
       </c>
       <c r="X6" t="n">
-        <v>806.8718901071012</v>
+        <v>691.2732241428675</v>
       </c>
       <c r="Y6" t="n">
-        <v>599.1115913421472</v>
+        <v>483.5129253779136</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>448.932472364843</v>
+        <v>262.8429331405243</v>
       </c>
       <c r="C7" t="n">
-        <v>279.9962894369361</v>
+        <v>93.90675021261742</v>
       </c>
       <c r="D7" t="n">
-        <v>129.8796500246004</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="E7" t="n">
-        <v>129.8796500246004</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="F7" t="n">
-        <v>129.8796500246004</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="G7" t="n">
-        <v>27.9383947563003</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="H7" t="n">
-        <v>27.9383947563003</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="I7" t="n">
-        <v>27.9383947563003</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9383947563003</v>
+        <v>27.93839475630047</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874686</v>
+        <v>148.5233105874692</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208631</v>
+        <v>358.3569215208641</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014262</v>
+        <v>589.9861665014278</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750231</v>
+        <v>821.5424021750252</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767884</v>
+        <v>1019.405768767886</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612029</v>
+        <v>1165.191378612032</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049269</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950954</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="S7" t="n">
-        <v>855.4770491322785</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="T7" t="n">
-        <v>630.5809371950827</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="U7" t="n">
-        <v>630.5809371950827</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="V7" t="n">
-        <v>630.5809371950827</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="W7" t="n">
-        <v>630.5809371950827</v>
+        <v>893.2735280123115</v>
       </c>
       <c r="X7" t="n">
-        <v>630.5809371950827</v>
+        <v>665.2839771142942</v>
       </c>
       <c r="Y7" t="n">
-        <v>630.5809371950827</v>
+        <v>444.4913979707641</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781.4578466818741</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="C8" t="n">
-        <v>781.4578466818741</v>
+        <v>1098.708833879281</v>
       </c>
       <c r="D8" t="n">
-        <v>781.4578466818741</v>
+        <v>740.4431352725305</v>
       </c>
       <c r="E8" t="n">
-        <v>781.4578466818741</v>
+        <v>354.6548826742863</v>
       </c>
       <c r="F8" t="n">
-        <v>370.4719418922666</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918766</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.597178657686</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>781.4578466818741</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>168.00081891452</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380228</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694945</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>673.036065727045</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>673.036065727045</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>522.9194263147092</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>375.0063327323161</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>228.1163852344057</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>60.12992054268432</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>673.036065727045</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>673.036065727045</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>673.036065727045</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>673.036065727045</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5041,10 +5041,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179095</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900026</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776668</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>295.5818533952737</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>295.5818533952737</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5296,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468473</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,46 +5518,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5603,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2311.700279152293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311994</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032925</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>482.6390612909568</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>334.7259677085636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>187.8360202106533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>187.8360202106533</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614391</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.1522880254209</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>493.2161050975141</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2125.759767795858</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.684541140056</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.000052934169</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1292.582882897208</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1064.593331999191</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.8007528556607</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6949,25 +6949,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>633.992644467967</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>633.992644467967</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>94.56320294380259</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>244.2098454714573</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1024.063349920563</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>855.1271669926557</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429802</v>
@@ -7371,13 +7371,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797189</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>154.1946371899308</v>
       </c>
       <c r="O4" t="n">
-        <v>98.8606518859406</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898983</v>
+        <v>41.92993463898938</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213293</v>
+        <v>193.6499349213312</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>129.4330134067488</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>106.0713126946639</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.22040037418591</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.3662399606954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>47.21554925516928</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T31" t="n">
-        <v>80.44045370237404</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>144.1654765207635</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
-        <v>73.85777223953401</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.3371490132298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>57.22910392194174</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
@@ -26340,22 +26340,22 @@
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427096</v>
+        <v>178997.5061427119</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731229</v>
+        <v>301519.8707731205</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,28 +26383,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267225</v>
+        <v>41617.52445267278</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019593</v>
+        <v>73739.30240019533</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806974</v>
+        <v>229588.1389806968</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184268</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26459,7 +26459,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184266</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029163</v>
+        <v>69851.9793002918</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145823.8699921033</v>
+        <v>-145823.8699921035</v>
       </c>
       <c r="C6" t="n">
-        <v>301552.0569473702</v>
+        <v>301552.0569473683</v>
       </c>
       <c r="D6" t="n">
-        <v>240376.8074601635</v>
+        <v>240376.807460166</v>
       </c>
       <c r="E6" t="n">
-        <v>144574.4901452101</v>
+        <v>144227.1108908527</v>
       </c>
       <c r="F6" t="n">
-        <v>652059.931769756</v>
+        <v>651712.5525153996</v>
       </c>
       <c r="G6" t="n">
-        <v>652059.9317697564</v>
+        <v>651712.5525153991</v>
       </c>
       <c r="H6" t="n">
-        <v>652059.9317697559</v>
+        <v>651712.5525153991</v>
       </c>
       <c r="I6" t="n">
-        <v>652059.9317697559</v>
+        <v>651712.5525153992</v>
       </c>
       <c r="J6" t="n">
-        <v>602994.9870412115</v>
+        <v>602647.6077868545</v>
       </c>
       <c r="K6" t="n">
-        <v>610442.4073170838</v>
+        <v>610095.0280627264</v>
       </c>
       <c r="L6" t="n">
-        <v>578320.6293695598</v>
+        <v>577973.2501152038</v>
       </c>
       <c r="M6" t="n">
-        <v>519452.6380408293</v>
+        <v>519105.2587864719</v>
       </c>
       <c r="N6" t="n">
-        <v>652059.9317697561</v>
+        <v>651712.5525153989</v>
       </c>
       <c r="O6" t="n">
-        <v>652059.9317697559</v>
+        <v>651712.5525153993</v>
       </c>
       <c r="P6" t="n">
-        <v>652059.9317697561</v>
+        <v>651712.5525153992</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955687</v>
+        <v>687.6696919955705</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,22 +26792,22 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537538</v>
+        <v>349.2299344537558</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
@@ -26816,19 +26816,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826641</v>
+        <v>139.1997510826659</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219707</v>
+        <v>246.3952001219686</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287434</v>
+        <v>161.704347287436</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462851</v>
+        <v>291.3548976462829</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874337</v>
+        <v>161.704347287436</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462851</v>
+        <v>291.3548976462827</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287434</v>
+        <v>161.704347287436</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462851</v>
+        <v>291.3548976462829</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>332.5241925164869</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>362.8881840830643</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,7 +27475,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>140.1370989217913</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>7.88401062568137</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>76.32634012715627</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>107.9546230402866</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>46.96994131400071</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,7 +27590,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725375</v>
+        <v>16.04295731725171</v>
       </c>
       <c r="D5" t="n">
-        <v>199.9813578924305</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.3083017870272</v>
+        <v>63.30830178702513</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908716</v>
+        <v>103.8974541908713</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0.01103426365716587</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471523</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>85.51225813089707</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>35.66796288742482</v>
       </c>
       <c r="E6" t="n">
-        <v>9.537437256197421</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277716</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419594</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>83.30680111645857</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>65.82907654252185</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285478</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057415</v>
+        <v>5.686931024057188</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
         <v>286.2513897146553</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>118.0497333694451</v>
       </c>
       <c r="G8" t="n">
-        <v>161.2247116744036</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>138.4572065201945</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30039,10 +30039,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354043</v>
+        <v>2.76450127435405</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597835</v>
+        <v>28.31194867597842</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795343</v>
+        <v>106.5784353795346</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342067</v>
+        <v>234.6335900342073</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776133</v>
+        <v>351.6549289776143</v>
       </c>
       <c r="L5" t="n">
-        <v>436.259034852626</v>
+        <v>436.2590348526271</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904196</v>
+        <v>485.422234390421</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361782</v>
+        <v>493.2768736361795</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893201</v>
+        <v>465.7873640893213</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787046</v>
+        <v>397.5387388787057</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909003</v>
+        <v>298.5350369909011</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751423</v>
+        <v>173.6556031751427</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934281</v>
+        <v>62.99607278934298</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848483</v>
+        <v>12.10160432848486</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483234</v>
+        <v>0.221160101948324</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782921</v>
+        <v>1.479138582782925</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371927</v>
+        <v>14.28536473371931</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721901</v>
+        <v>50.92648190721914</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233637</v>
+        <v>139.746158823364</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698194</v>
+        <v>238.84844386982</v>
       </c>
       <c r="L6" t="n">
-        <v>321.161208511704</v>
+        <v>321.1612085117049</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375849</v>
+        <v>374.7799821375859</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721248</v>
+        <v>384.6992930721258</v>
       </c>
       <c r="O6" t="n">
-        <v>351.924696053619</v>
+        <v>351.9246960536199</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122931</v>
+        <v>282.4505948122939</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.810742602255</v>
+        <v>188.8107426022555</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103089</v>
+        <v>91.83634113103113</v>
       </c>
       <c r="S6" t="n">
-        <v>27.4743504302003</v>
+        <v>27.47435043020037</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603088</v>
+        <v>5.961966480603104</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729749</v>
+        <v>0.09731174886729775</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319878</v>
+        <v>1.240060100319881</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920765</v>
+        <v>11.02526161920768</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871052</v>
+        <v>37.29198919871062</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261536</v>
+        <v>87.67224909261559</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098912</v>
+        <v>144.0724371098916</v>
       </c>
       <c r="L7" t="n">
-        <v>184.363117096648</v>
+        <v>184.3631170966485</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619605</v>
+        <v>194.385057361961</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698592</v>
+        <v>189.7630151698598</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433952</v>
+        <v>175.2768585433956</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968695</v>
+        <v>149.9796324968699</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913309</v>
+        <v>103.8381234913311</v>
       </c>
       <c r="R7" t="n">
-        <v>55.7576114198374</v>
+        <v>55.75761141983754</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648368</v>
+        <v>21.61086556648374</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457659</v>
+        <v>5.298438610457672</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562977</v>
+        <v>0.06763964183562995</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753693</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663271</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>297.7596336167228</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>346.7710205055862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,34 +33259,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043726</v>
@@ -33496,31 +33496,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33669,13 +33669,13 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
@@ -33733,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,13 +33970,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>100.2764607028593</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34207,16 +34207,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34865,16 +34865,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>177.8598224851391</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933411</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752038</v>
+        <v>53.58768550752097</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326328</v>
+        <v>131.5650779326338</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826387</v>
+        <v>200.4926198826399</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631469</v>
+        <v>255.0760011631482</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395872</v>
+        <v>263.8638100395885</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676334</v>
+        <v>235.6891526676346</v>
       </c>
       <c r="P5" t="n">
-        <v>166.305743123435</v>
+        <v>166.3057431234361</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645084</v>
+        <v>76.22934711645163</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669696</v>
+        <v>12.90853215669733</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954604</v>
+        <v>101.007004895461</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318299</v>
+        <v>182.6068287318307</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155665</v>
+        <v>232.6459482155676</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887915</v>
+        <v>253.3575809887925</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091745</v>
+        <v>209.3284516091755</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979629</v>
+        <v>148.4761873979637</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375628</v>
+        <v>242.4789034375652</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840084</v>
+        <v>121.8029452840088</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569642</v>
+        <v>211.9531423569647</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238011</v>
+        <v>233.9689343238016</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490878</v>
+        <v>233.8951875490883</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574348</v>
+        <v>199.8619864574353</v>
       </c>
       <c r="P7" t="n">
-        <v>147.258191761763</v>
+        <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963648</v>
+        <v>17.67608023963675</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065827</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>245.9137357376033</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>237.286271753351</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396408</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>163.7852262023926</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>395.0475418999253</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>206.7892464195647</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,13 +37317,13 @@
         <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7540807028593007</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,19 +38104,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3622151.9621406</v>
+        <v>3623912.492443385</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.20964914699371</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>21.45987517072724</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>9.633145769158318</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>77.97021545617299</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120.0319938887135</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>172.8661441604773</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537558</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.2299344537543</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537558</v>
+        <v>12.53823624078101</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537558</v>
+        <v>349.2299344537543</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>300.7256805251565</v>
+        <v>205.767666077122</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>111.7771026772139</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612</v>
+        <v>8.321493021612184</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>146.1133145741289</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>65.30867190175378</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057358</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>197.5292661960729</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>288.8263123722663</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>143.2809516757568</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>109.8058856274587</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634841</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.7384661432536</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187886</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>27.02919805176008</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444158</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008677915</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444158</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>104.8913819999787</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428074</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410141</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.1060369005844</v>
+        <v>359.7826784871777</v>
       </c>
       <c r="C2" t="n">
-        <v>338.1060369005844</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1060369005844</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005844</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513809</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4327,7 +4327,7 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4339,43 +4339,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372648</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207801</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207801</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207801</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207801</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207801</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207801</v>
+        <v>549.2024635036626</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.133934959413</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>166.133934959413</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>166.133934959413</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>166.133934959413</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>166.133934959413</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>713.1888420124504</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T3" t="n">
-        <v>523.7690569959657</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="U3" t="n">
-        <v>523.7690569959657</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="V3" t="n">
-        <v>523.7690569959657</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="W3" t="n">
-        <v>523.7690569959657</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="X3" t="n">
-        <v>334.349271979481</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="Y3" t="n">
-        <v>334.349271979481</v>
+        <v>644.1614988942544</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.1023486652795</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>581.1661657373726</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>431.0495263250368</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>283.1364327426437</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>136.2464852447333</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
         <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>295.5529562639638</v>
+        <v>465.2530182692153</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>650.9033495638721</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>750.10234866528</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652795</v>
+        <v>386.0702968200302</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652795</v>
+        <v>196.6505118035453</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>740.3989146040007</v>
+        <v>505.2532135715712</v>
       </c>
       <c r="C5" t="n">
-        <v>387.6414050547523</v>
+        <v>505.2532135715712</v>
       </c>
       <c r="D5" t="n">
-        <v>387.6414050547523</v>
+        <v>152.4957040223245</v>
       </c>
       <c r="E5" t="n">
-        <v>387.6414050547523</v>
+        <v>152.4957040223245</v>
       </c>
       <c r="F5" t="n">
-        <v>380.6959043055488</v>
+        <v>145.5502032731211</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630047</v>
+        <v>132.8853181814231</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630047</v>
+        <v>132.8853181814231</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874631</v>
+        <v>80.99020340874563</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620539</v>
+        <v>211.2396305620524</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458673</v>
+        <v>409.7273242458651</v>
       </c>
       <c r="M5" t="n">
-        <v>662.252565397384</v>
+        <v>662.2525653973806</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365765</v>
+        <v>923.4777373365721</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477535</v>
+        <v>1156.809998477529</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169736</v>
+        <v>1321.45268416973</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815023</v>
+        <v>1065.856850471446</v>
       </c>
       <c r="W5" t="n">
-        <v>1044.162228265775</v>
+        <v>713.0993409221995</v>
       </c>
       <c r="X5" t="n">
-        <v>1044.162228265775</v>
+        <v>713.0993409221995</v>
       </c>
       <c r="Y5" t="n">
-        <v>740.3989146040007</v>
+        <v>505.2532135715712</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>315.2975883578456</v>
+        <v>657.0978466772491</v>
       </c>
       <c r="C6" t="n">
-        <v>140.8445590767186</v>
+        <v>482.6448173961221</v>
       </c>
       <c r="D6" t="n">
-        <v>27.93839475630047</v>
+        <v>333.7104077348708</v>
       </c>
       <c r="E6" t="n">
-        <v>27.93839475630047</v>
+        <v>174.4729527294154</v>
       </c>
       <c r="F6" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143083</v>
+        <v>40.71784159143042</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379372</v>
+        <v>140.7147764379364</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824496</v>
+        <v>321.4955368824482</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158615</v>
+        <v>551.8150256158593</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947661</v>
+        <v>802.6390307947631</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.87419788785</v>
+        <v>1009.874197887846</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411834</v>
+        <v>1156.86562341183</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308338</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308338</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308338</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308345</v>
+        <v>1388.514189308338</v>
       </c>
       <c r="V6" t="n">
-        <v>1153.362081076602</v>
+        <v>1388.514189308338</v>
       </c>
       <c r="W6" t="n">
-        <v>899.1247243484004</v>
+        <v>1240.924982667804</v>
       </c>
       <c r="X6" t="n">
-        <v>691.2732241428675</v>
+        <v>1033.073482462271</v>
       </c>
       <c r="Y6" t="n">
-        <v>483.5129253779136</v>
+        <v>825.3131836973171</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.8429331405243</v>
+        <v>352.7355918683181</v>
       </c>
       <c r="C7" t="n">
-        <v>93.90675021261742</v>
+        <v>183.7994089404112</v>
       </c>
       <c r="D7" t="n">
-        <v>27.93839475630047</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="E7" t="n">
-        <v>27.93839475630047</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="F7" t="n">
-        <v>27.93839475630047</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630047</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630047</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630047</v>
+        <v>33.68276952807545</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630047</v>
+        <v>27.93839475630034</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>148.5233105874687</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208641</v>
+        <v>358.3569215208634</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014278</v>
+        <v>589.9861665014265</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750252</v>
+        <v>821.5424021750235</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1019.405768767884</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1165.19137861203</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="V7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="W7" t="n">
-        <v>893.2735280123115</v>
+        <v>983.1661867401053</v>
       </c>
       <c r="X7" t="n">
-        <v>665.2839771142942</v>
+        <v>755.176635842088</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.4913979707641</v>
+        <v>534.3840566985579</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1467.671350819693</v>
+        <v>1719.977393518933</v>
       </c>
       <c r="C8" t="n">
-        <v>1098.708833879281</v>
+        <v>1351.014876578521</v>
       </c>
       <c r="D8" t="n">
-        <v>740.4431352725305</v>
+        <v>992.7491779717709</v>
       </c>
       <c r="E8" t="n">
-        <v>354.6548826742863</v>
+        <v>606.9609253735266</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>195.975020583919</v>
       </c>
       <c r="G8" t="n">
         <v>51.2467865680031</v>
@@ -4804,16 +4804,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>2106.577233583055</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4962,25 +4962,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5032,25 +5032,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,16 +5059,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2269.002343845332</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.400878868273</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
         <v>776.1751066403293</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5597,10 +5597,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,22 +6004,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466574</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,34 +6244,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327638</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048567</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048567</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>446.9048623224635</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>446.9048623224635</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>279.7087630373433</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>137.9969318795412</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630037</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362707</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708878</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541326</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885523</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679636</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642675</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744658</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011277</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362707</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
@@ -7192,7 +7192,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511393</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189239</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,13 +7587,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7639,25 +7639,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398594</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797189</v>
@@ -7815,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7824,13 +7824,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>154.1946371899308</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>98.8606518859408</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898938</v>
+        <v>41.92993463898972</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213312</v>
+        <v>193.6499349213294</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.4330134067488</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>44.8352157236614</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>71.22040037418591</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>37.52737017531205</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405089</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405093</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194326</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194321</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823005</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710683</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
@@ -26346,13 +26346,13 @@
         <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427119</v>
+        <v>178997.50614271</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731205</v>
+        <v>301519.8707731224</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,28 +26383,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.237009190750541e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854455</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267278</v>
+        <v>41617.52445267239</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019533</v>
+        <v>73739.30240019578</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806968</v>
+        <v>229588.1389806972</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184267</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184254</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184261</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184259</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.8081118426</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184271</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.9793002918</v>
+        <v>69851.97930029167</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26490,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145823.8699921035</v>
+        <v>-145823.8699921037</v>
       </c>
       <c r="C6" t="n">
-        <v>301552.0569473683</v>
+        <v>301552.0569473698</v>
       </c>
       <c r="D6" t="n">
-        <v>240376.807460166</v>
+        <v>240376.807460164</v>
       </c>
       <c r="E6" t="n">
-        <v>144227.1108908527</v>
+        <v>144539.7522197745</v>
       </c>
       <c r="F6" t="n">
-        <v>651712.5525153996</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="G6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="H6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="I6" t="n">
-        <v>651712.5525153992</v>
+        <v>652025.19384432</v>
       </c>
       <c r="J6" t="n">
-        <v>602647.6077868545</v>
+        <v>602960.249115776</v>
       </c>
       <c r="K6" t="n">
-        <v>610095.0280627264</v>
+        <v>610407.6693916481</v>
       </c>
       <c r="L6" t="n">
-        <v>577973.2501152038</v>
+        <v>578285.8914441247</v>
       </c>
       <c r="M6" t="n">
-        <v>519105.2587864719</v>
+        <v>519417.9001153938</v>
       </c>
       <c r="N6" t="n">
-        <v>651712.5525153989</v>
+        <v>652025.1938443207</v>
       </c>
       <c r="O6" t="n">
-        <v>651712.5525153993</v>
+        <v>652025.1938443203</v>
       </c>
       <c r="P6" t="n">
-        <v>651712.5525153992</v>
+        <v>652025.1938443203</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955705</v>
+        <v>687.6696919955691</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537558</v>
+        <v>349.2299344537543</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826659</v>
+        <v>139.1997510826644</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219686</v>
+        <v>246.3952001219702</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287436</v>
+        <v>161.7043472874342</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462829</v>
+        <v>291.3548976462845</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287436</v>
+        <v>161.7043472874343</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462827</v>
+        <v>291.3548976462845</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287436</v>
+        <v>161.7043472874342</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462829</v>
+        <v>291.3548976462845</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.5241925164869</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>343.8130166002803</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>140.1370989217913</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.88401062568137</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>154.8303716932523</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>46.96994131400071</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027099</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>52.84351122855983</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577478</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725171</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166928703</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.30830178702513</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>311.1628534397888</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>146.0239967969025</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27675,16 +27675,16 @@
         <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365716587</v>
+        <v>0.01103426365875748</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>85.51225813089707</v>
+        <v>180.4702725789316</v>
       </c>
     </row>
     <row r="6">
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>35.66796288742482</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>97.95007950277719</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419594</v>
+        <v>38.47015094419604</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,10 +27754,10 @@
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>105.5816685867907</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>83.30680111645857</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057188</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>88.99373214051806</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>118.0497333694451</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>268.2667510971972</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.15649557840271e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.297265743103488e-13</v>
       </c>
     </row>
     <row r="29">
@@ -30039,10 +30039,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76450127435405</v>
+        <v>2.764501274354044</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597842</v>
+        <v>28.31194867597837</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795346</v>
+        <v>106.5784353795344</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342073</v>
+        <v>234.6335900342068</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776143</v>
+        <v>351.6549289776136</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526271</v>
+        <v>436.2590348526263</v>
       </c>
       <c r="M5" t="n">
-        <v>485.422234390421</v>
+        <v>485.42223439042</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361795</v>
+        <v>493.2768736361784</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893213</v>
+        <v>465.7873640893204</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787057</v>
+        <v>397.5387388787049</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909011</v>
+        <v>298.5350369909006</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751427</v>
+        <v>173.6556031751424</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934298</v>
+        <v>62.99607278934285</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>12.10160432848484</v>
       </c>
       <c r="U5" t="n">
-        <v>0.221160101948324</v>
+        <v>0.2211601019483235</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782925</v>
+        <v>1.479138582782922</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>14.28536473371928</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721914</v>
+        <v>50.92648190721904</v>
       </c>
       <c r="J6" t="n">
-        <v>139.746158823364</v>
+        <v>139.7461588233637</v>
       </c>
       <c r="K6" t="n">
-        <v>238.84844386982</v>
+        <v>238.8484438698195</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117049</v>
+        <v>321.1612085117043</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375859</v>
+        <v>374.7799821375851</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721258</v>
+        <v>384.699293072125</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536199</v>
+        <v>351.9246960536192</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122939</v>
+        <v>282.4505948122933</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022555</v>
+        <v>188.8107426022551</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103113</v>
+        <v>91.83634113103095</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020037</v>
+        <v>27.47435043020031</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603104</v>
+        <v>5.961966480603093</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729775</v>
+        <v>0.09731174886729756</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.240060100319879</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>11.02526161920766</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871062</v>
+        <v>37.29198919871054</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261559</v>
+        <v>87.67224909261542</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>144.0724371098913</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966485</v>
+        <v>184.3631170966482</v>
       </c>
       <c r="M7" t="n">
-        <v>194.385057361961</v>
+        <v>194.3850573619606</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>189.7630151698594</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433956</v>
+        <v>175.2768585433953</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968699</v>
+        <v>149.9796324968696</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913311</v>
+        <v>103.8381234913309</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983754</v>
+        <v>55.75761141983744</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648374</v>
+        <v>21.6108655664837</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457672</v>
+        <v>5.298438610457661</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562995</v>
+        <v>0.06763964183562982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159423</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34541,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>177.8598224851391</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>100.2010091933413</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752097</v>
+        <v>53.58768550752052</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326338</v>
+        <v>131.565077932633</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826399</v>
+        <v>200.492619882639</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631482</v>
+        <v>255.0760011631473</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395885</v>
+        <v>263.8638100395875</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676346</v>
+        <v>235.6891526676337</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234361</v>
+        <v>166.3057431234353</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645163</v>
+        <v>76.22934711645107</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669733</v>
+        <v>12.90853215669705</v>
       </c>
       <c r="K6" t="n">
-        <v>101.007004895461</v>
+        <v>101.0070048954605</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318307</v>
+        <v>182.6068287318301</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155676</v>
+        <v>232.6459482155668</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887925</v>
+        <v>253.3575809887917</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091755</v>
+        <v>209.3284516091748</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979637</v>
+        <v>148.4761873979631</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375652</v>
+        <v>242.4789034375631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>121.8029452840085</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>211.9531423569643</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>233.9689343238012</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490883</v>
+        <v>233.895187549088</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574353</v>
+        <v>199.8619864574349</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>147.2581917617631</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963675</v>
+        <v>17.67608023963655</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>245.9137357376033</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193515</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38186,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
